--- a/Data collection/Gaps.xlsx
+++ b/Data collection/Gaps.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419EA73F-286B-3F4C-BD5C-3E9FE04561FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A0F08B-8411-DF42-9735-161D71566DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gap 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Gap 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="205">
   <si>
     <t>zosa_2022_multilingual_topic_labelling_of_news_topics_using_ontological_mapping</t>
   </si>
@@ -496,13 +498,196 @@
   </si>
   <si>
     <t>Shared repo.</t>
+  </si>
+  <si>
+    <t>nDCG</t>
+  </si>
+  <si>
+    <t>Human rating - Four level scale</t>
+  </si>
+  <si>
+    <t>Human rating - Binary evaluation</t>
+  </si>
+  <si>
+    <t>BERTScores</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Cosine similarity</t>
+  </si>
+  <si>
+    <t>campos_2022_providing_recommendations_for_communities_of_learners_in_moocs_ecosystems</t>
+  </si>
+  <si>
+    <t>Cosine similarity (to human labels)</t>
+  </si>
+  <si>
+    <t>Relevance, Coverage, Discrimination</t>
+  </si>
+  <si>
+    <t>Human rating - 100 level scale</t>
+  </si>
+  <si>
+    <t>kuhn_2018_using_structural_topic_modeling_to_identify_latent_topics_and_trends_in_aviation_incident_reports</t>
+  </si>
+  <si>
+    <t>Human rating - Informal evaluation</t>
+  </si>
+  <si>
+    <t>mukherjee_2020_read_what_you_need_controllable_aspect_based_opinion_summarization_of_tourist_reviews</t>
+  </si>
+  <si>
+    <t>Human rating - Informal evaluation (Comparison with previous literature)</t>
+  </si>
+  <si>
+    <t>multilingual_topic_labelling_of_news_topics_using_ontological_mapping</t>
+  </si>
+  <si>
+    <t>Rogue-1 (R-1)</t>
+  </si>
+  <si>
+    <t>Human rating - Multi-choice preference (forced-choice paradigm)</t>
+  </si>
+  <si>
+    <t>smith_2017_evaluating_visual_representations_for_topic_understanding_and_their_effects_on_manually_generated_topic_labels</t>
+  </si>
+  <si>
+    <t>Human rating - Multi-choice preference</t>
+  </si>
+  <si>
+    <t>stamolampros_2019_job_satisfaction_and_employee_turnover_determinants_in_high_contact_services_insights_from_employees_online_reviews</t>
+  </si>
+  <si>
+    <t>Human rating - Binary valuation + Kappa (Fleiss)</t>
+  </si>
+  <si>
+    <t>Pointwise Mutual Information (PMI)</t>
+  </si>
+  <si>
+    <t>Normalized Pointwise Mutual Information (NPMI)</t>
+  </si>
+  <si>
+    <t>Experts involved</t>
+  </si>
+  <si>
+    <t>Assessors</t>
+  </si>
+  <si>
+    <t>Nr ratings per topic</t>
+  </si>
+  <si>
+    <t>Experts with substantial experience in human resource management for travel and hospitality services</t>
+  </si>
+  <si>
+    <t>Additional desc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six computer scientists as human annotators </t>
+  </si>
+  <si>
+    <t>Corpus requires expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 graduate and undergraduate students of Computer Science </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotators have varying backgrounds, including computer science, medicine, law, and economics. </t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Topic terms</t>
+  </si>
+  <si>
+    <t>Gold-standard</t>
+  </si>
+  <si>
+    <t>Topic terms and documents</t>
+  </si>
+  <si>
+    <t>Topic terms (and other topics for discrimination)</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proficient English speakers. All but one annotator were not domain experts. </t>
+  </si>
+  <si>
+    <t>20, 16</t>
+  </si>
+  <si>
+    <t>Expert inv.</t>
+  </si>
+  <si>
+    <t>Multiple dimensions</t>
+  </si>
+  <si>
+    <t>Multiple criteria</t>
+  </si>
+  <si>
+    <t>Sec. Focus</t>
+  </si>
+  <si>
+    <t>Considered information</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>Nr docs</t>
+  </si>
+  <si>
+    <t>other labels</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Paragraph</t>
+  </si>
+  <si>
+    <t>aletras_2017_evaluating_topic_representations_for_exploring_document_collections</t>
+  </si>
+  <si>
+    <t>wang_2020_a_topic_based_patent_analytics_approach_for_exploring_technological_trends_in_smart_manufacturing</t>
+  </si>
+  <si>
+    <t>effrosynidis_2022_the_climate_change_twitter_dataset</t>
+  </si>
+  <si>
+    <t>wahid_2022_topic2labels_a_framework_to_annotate_and_classify_the_social_media_data_through_lda_topics_and_deep_learning_models_for_crisis_response</t>
+  </si>
+  <si>
+    <t>Comp. with n-gram labels</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,12 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,8 +727,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C1A02"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C1A02"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +782,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,23 +843,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,6 +876,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C1A02"/>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -959,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9329119-0081-F44B-987A-6B919405A53D}">
   <dimension ref="A1:S192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,13 +1262,13 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1026,13 +1276,13 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1040,13 +1290,13 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>21</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1140,27 +1390,27 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>75</v>
       </c>
       <c r="E11">
@@ -1177,9 +1427,6 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="G12" t="s">
         <v>71</v>
       </c>
@@ -1243,18 +1490,18 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
@@ -1274,13 +1521,13 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1288,13 +1535,13 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -1303,7 +1550,7 @@
       <c r="G21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1317,7 +1564,7 @@
       <c r="G22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1325,13 +1572,13 @@
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1342,7 +1589,7 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D24">
@@ -1365,18 +1612,18 @@
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="6">
         <v>13</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
@@ -1415,7 +1662,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G29" s="4" t="s">
+      <c r="G29" t="s">
         <v>82</v>
       </c>
       <c r="H29" t="s">
@@ -1450,7 +1697,7 @@
       <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
@@ -1467,13 +1714,13 @@
       <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="6">
         <v>26</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1484,13 +1731,13 @@
       <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="6">
         <v>13</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" t="s">
@@ -1499,7 +1746,7 @@
       <c r="G35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1507,13 +1754,13 @@
       <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="6">
         <v>12</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1524,7 +1771,7 @@
       <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D37">
@@ -1555,13 +1802,13 @@
       <c r="B39" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1572,13 +1819,13 @@
       <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="6">
         <v>4</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" t="s">
@@ -1587,7 +1834,7 @@
       <c r="G40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1598,13 +1845,13 @@
       <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1612,16 +1859,16 @@
       <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <v>55</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1632,13 +1879,13 @@
       <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="6">
         <v>0</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1675,13 +1922,13 @@
       <c r="B45" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="6">
         <v>7</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1797,80 +2044,80 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
       <c r="G104" s="1"/>
       <c r="R104" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
       <c r="R105" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="1"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="1"/>
       <c r="R106" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
       <c r="R107" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
       <c r="G108" s="1"/>
       <c r="R108" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
       <c r="R109" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
       <c r="M110" t="s">
         <v>97</v>
       </c>
@@ -1891,13 +2138,13 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
       <c r="M111" t="s">
         <v>118</v>
       </c>
@@ -1915,13 +2162,13 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
       <c r="M112" t="s">
         <v>129</v>
       </c>
@@ -1933,13 +2180,13 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
       <c r="M113" t="s">
         <v>94</v>
       </c>
@@ -1951,13 +2198,13 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
       <c r="M114" t="s">
         <v>130</v>
       </c>
@@ -1978,13 +2225,13 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
       <c r="M115" t="s">
         <v>120</v>
       </c>
@@ -1996,13 +2243,13 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
       <c r="M116" t="s">
         <v>140</v>
       </c>
@@ -2023,13 +2270,13 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
       <c r="M117" t="s">
         <v>131</v>
       </c>
@@ -2041,13 +2288,13 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
       <c r="M118" t="s">
         <v>93</v>
       </c>
@@ -2059,13 +2306,13 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
       <c r="M119" t="s">
         <v>100</v>
       </c>
@@ -2086,13 +2333,13 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
       <c r="Q120" t="s">
         <v>49</v>
       </c>
@@ -2101,13 +2348,13 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
       <c r="M121" t="s">
         <v>132</v>
       </c>
@@ -2125,13 +2372,13 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
       <c r="Q122" t="s">
         <v>49</v>
       </c>
@@ -2143,13 +2390,13 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
       <c r="M123" t="s">
         <v>115</v>
       </c>
@@ -2170,13 +2417,13 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
       <c r="Q124" t="s">
         <v>98</v>
       </c>
@@ -2188,13 +2435,13 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
       <c r="M125" t="s">
         <v>95</v>
       </c>
@@ -2218,13 +2465,13 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
       <c r="M126" t="s">
         <v>141</v>
       </c>
@@ -2236,13 +2483,13 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
       <c r="M127" t="s">
         <v>92</v>
       </c>
@@ -2254,13 +2501,13 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
       <c r="M128" t="s">
         <v>114</v>
       </c>
@@ -2272,13 +2519,13 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
       <c r="M129" t="s">
         <v>136</v>
       </c>
@@ -2299,13 +2546,13 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
       <c r="M130" t="s">
         <v>116</v>
       </c>
@@ -2317,13 +2564,13 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
       <c r="M131" t="s">
         <v>112</v>
       </c>
@@ -2335,13 +2582,13 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
       <c r="M132" t="s">
         <v>102</v>
       </c>
@@ -2353,13 +2600,13 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
       <c r="M133" t="s">
         <v>90</v>
       </c>
@@ -2374,13 +2621,13 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
       <c r="M134" t="s">
         <v>135</v>
       </c>
@@ -2392,13 +2639,13 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
       <c r="M135" t="s">
         <v>139</v>
       </c>
@@ -2410,13 +2657,13 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
       <c r="M136" t="s">
         <v>113</v>
       </c>
@@ -2431,13 +2678,13 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
       <c r="M137" t="s">
         <v>138</v>
       </c>
@@ -2449,695 +2696,586 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="8"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="18"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="8"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="18"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="8"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="18"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="8"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="18"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="8"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="8"/>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="8"/>
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="18"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="8"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="18"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="10"/>
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="19"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="10"/>
+      <c r="A178" s="18"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="19"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="8"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
+      <c r="A180" s="18"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="8"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="8"/>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="8"/>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:A53">
     <sortCondition ref="A25:A53"/>
   </sortState>
   <mergeCells count="298">
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
     <mergeCell ref="A143:A144"/>
     <mergeCell ref="B143:B144"/>
     <mergeCell ref="C143:C144"/>
@@ -3150,78 +3288,25 @@
     <mergeCell ref="D141:D142"/>
     <mergeCell ref="E141:E142"/>
     <mergeCell ref="F141:F142"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A115:A116"/>
     <mergeCell ref="B115:B116"/>
     <mergeCell ref="C115:C116"/>
@@ -3237,18 +3322,1600 @@
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E89A60-1EA7-8442-A24F-6B15DC853FD5}">
+  <dimension ref="A1:K87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G24" sqref="B24:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="F4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="F18" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>300</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="9">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="I41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="9">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="9">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>35</v>
+      </c>
+      <c r="I46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="9">
+        <v>750</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="9">
+        <v>36</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="10"/>
+      <c r="C61" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" t="s">
+        <v>178</v>
+      </c>
+      <c r="K63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J65" t="s">
+        <v>182</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="10"/>
+      <c r="C68" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="14"/>
+      <c r="C76" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="10"/>
+      <c r="C78" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B70:D83">
+    <sortCondition ref="B69:B83"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602F6835-4A1E-8444-A04C-457833FC4626}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Data collection/Gaps.xlsx
+++ b/Data collection/Gaps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A0F08B-8411-DF42-9735-161D71566DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A48704-6E8C-DE48-AA98-57771D3BC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="210">
   <si>
     <t>zosa_2022_multilingual_topic_labelling_of_news_topics_using_ontological_mapping</t>
   </si>
@@ -674,13 +674,28 @@
     <t>wahid_2022_topic2labels_a_framework_to_annotate_and_classify_the_social_media_data_through_lda_topics_and_deep_learning_models_for_crisis_response</t>
   </si>
   <si>
-    <t>Comp. with n-gram labels</t>
-  </si>
-  <si>
-    <t>Formal</t>
-  </si>
-  <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>N-gram label + sentence description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2: What is the impact of different topic representations on human search effectiveness for a given query? </t>
+  </si>
+  <si>
+    <t>N-gram label + sentence</t>
+  </si>
+  <si>
+    <t>The visual representation of a topic has been shown to be as effective as the textual labels on retrieving information using a topic browser while it can be understood quickly by the users.</t>
+  </si>
+  <si>
+    <t>N-gram label + image</t>
+  </si>
+  <si>
+    <t>Includes n-gram labels</t>
+  </si>
+  <si>
+    <t>Includes comparison</t>
   </si>
 </sst>
 </file>
@@ -766,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -869,12 +890,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1209,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9329119-0081-F44B-987A-6B919405A53D}">
   <dimension ref="A1:S192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3504,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E89A60-1EA7-8442-A24F-6B15DC853FD5}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G24" sqref="B24:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4715,206 +4749,340 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602F6835-4A1E-8444-A04C-457833FC4626}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>195</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>199</v>
       </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="23"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="23"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B27:B41">
+    <sortCondition ref="B27:B41"/>
+  </sortState>
+  <conditionalFormatting sqref="B38 B34">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Data collection/Gaps.xlsx
+++ b/Data collection/Gaps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Data collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A48704-6E8C-DE48-AA98-57771D3BC205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9ABD41-6290-E54E-84CB-68FE651C57E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4AC15D77-A546-3547-A2C3-EEAA1142FFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap 1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="217">
   <si>
     <t>zosa_2022_multilingual_topic_labelling_of_news_topics_using_ontological_mapping</t>
   </si>
@@ -696,6 +696,27 @@
   </si>
   <si>
     <t>Includes comparison</t>
+  </si>
+  <si>
+    <t>Only one example of n-gram + sentence</t>
+  </si>
+  <si>
+    <t>Original P.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>wan_2016_automatic_labeling_of_topic_models_using_text_summaries</t>
+  </si>
+  <si>
+    <t>barawi_2017_automatically_labelling_sentiment_bearing_topics_with_descriptive_sentence_labels</t>
+  </si>
+  <si>
+    <t>aletras_2013_representing_topics_using_images</t>
   </si>
 </sst>
 </file>
@@ -781,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +842,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -892,6 +919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4752,10 +4783,13 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
@@ -4769,15 +4803,19 @@
       <c r="A2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="E2" s="24"/>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -4785,7 +4823,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D4" t="s">
@@ -4793,12 +4831,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="C5" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="E5" s="24"/>
       <c r="F5" t="s">
         <v>203</v>
       </c>
@@ -4807,7 +4846,7 @@
       <c r="B6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
@@ -4821,10 +4860,10 @@
       <c r="C7" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="24" t="s">
         <v>51</v>
       </c>
       <c r="F7" t="s">
@@ -4833,7 +4872,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="22"/>
-      <c r="C8" t="s">
+      <c r="C8" s="28" t="s">
         <v>201</v>
       </c>
       <c r="D8" t="s">
@@ -4847,7 +4886,7 @@
       <c r="B9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
@@ -4917,10 +4956,10 @@
       <c r="C14" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4931,149 +4970,154 @@
       <c r="C15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F20" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="23"/>
+      <c r="C26" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>24</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>198</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="23"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="23"/>
     </row>
   </sheetData>
@@ -5083,6 +5127,9 @@
   <conditionalFormatting sqref="B38 B34">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" display="https://link.springer.com/chapter/10.1007/978-3-319-59569-6_38" xr:uid="{25F0BC9B-FD69-FC4B-9962-8671F9A07A28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
